--- a/Kode/Server2/Logs/lora_node3/2020-05-13.xlsx
+++ b/Kode/Server2/Logs/lora_node3/2020-05-13.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,6 +3726,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>0.7395313342013889</v>
+      </c>
+      <c r="C169" t="n">
+        <v>84</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>0.7402255024537037</v>
+      </c>
+      <c r="C170" t="n">
+        <v>84</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.7409213100347222</v>
+      </c>
+      <c r="C171" t="n">
+        <v>84</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>0.7416137871643519</v>
+      </c>
+      <c r="C172" t="n">
+        <v>84</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>0.741711779074074</v>
+      </c>
+      <c r="C173" t="n">
+        <v>84</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>0.7454900364351852</v>
+      </c>
+      <c r="C174" t="n">
+        <v>84</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>0.7461840134143518</v>
+      </c>
+      <c r="C175" t="n">
+        <v>84</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>0.7468785224074074</v>
+      </c>
+      <c r="C176" t="n">
+        <v>84</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
